--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.wettstein\Documents\git\pu-pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\pu-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAE75D0-B89E-49BF-8193-DC0071A4D5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2832F14A-E595-46C3-8546-5E016BD2E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -358,86 +364,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -450,45 +387,132 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,7 +528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -803,216 +827,217 @@
   <dimension ref="F8:AF39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
     <col min="8" max="28" width="9.140625" style="1" customWidth="1"/>
     <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="25" t="s">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="37" t="s">
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="41"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="13" t="s">
+      <c r="M9" s="34"/>
+      <c r="N9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="9" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="15" t="s">
+      <c r="T9" s="36"/>
+      <c r="U9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="11" t="s">
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="11" t="s">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AC9" s="38" t="s">
+      <c r="AC9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="33" t="s">
+      <c r="AD9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="42" t="s">
+      <c r="AE9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="33" t="s">
+      <c r="AF9" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:32" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="28" t="s">
+    <row r="10" spans="6:32" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F10" s="46"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="29" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29" t="s">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="30" t="s">
+      <c r="T10" s="6"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30" t="s">
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="35" t="s">
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="34"/>
+      <c r="AF10" s="22"/>
     </row>
     <row r="11" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="48">
         <v>44222</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>4</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>0</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>2</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="40">
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="41">
         <f>H11+O11+V11</f>
         <v>6</v>
       </c>
@@ -1030,931 +1055,940 @@
       </c>
     </row>
     <row r="12" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="48">
         <v>44223</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="40"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="41"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="48">
         <v>44224</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="40"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="41"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="48">
         <v>44225</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="40"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="41"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="48">
         <v>44226</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="40"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="41"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="48">
         <v>44227</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="40"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="41"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="48">
         <v>44228</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="40"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="41"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="48">
         <v>44229</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="40"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="41"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="48">
         <v>44230</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="40"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="41"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="48">
         <v>44231</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="40"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="41"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="48">
         <v>44232</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="40"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="41"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="48">
         <v>44233</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="40"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="41"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="48">
         <v>44234</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="40"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="41"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="48">
         <v>44235</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="40"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="41"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="48">
         <v>44236</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="40"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="41"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="48">
         <v>44237</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="40"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="41"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="48">
         <v>44238</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="40"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="41"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="48">
         <v>44239</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="40"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="41"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="48">
         <v>44240</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="40"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="41"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="48">
         <v>44241</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="40"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="41"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
     <row r="31" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="48">
         <v>44242</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="40"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="41"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
     <row r="32" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="48">
         <v>44243</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="40"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="41"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
     <row r="33" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="48">
         <v>44244</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="40"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="41"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
     <row r="34" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="48">
         <v>44245</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
       <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="40"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="41"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
     <row r="35" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="48">
         <v>44246</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="40"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="41"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
     <row r="36" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="48">
         <v>44247</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="40"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="41"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
     <row r="37" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="48">
         <v>44248</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
       <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="40"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="41"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
     <row r="38" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="48">
         <v>44249</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="40"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="41"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
     <row r="39" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="48">
         <v>44250</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="40"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="41"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="U9:U10"/>
@@ -1962,19 +1996,10 @@
     <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="H8:N8"/>
     <mergeCell ref="O8:U8"/>
     <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
   </mergeCells>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\pu-pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.wettstein\Documents\git\pu-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2832F14A-E595-46C3-8546-5E016BD2E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070BABE-DF3E-401A-BB80-80F1D9204715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -393,90 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -510,9 +426,93 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -827,122 +827,122 @@
   <dimension ref="F8:AF39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="4.85546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
     <col min="8" max="28" width="9.140625" style="1" customWidth="1"/>
     <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28" t="s">
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="31" t="s">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="16" t="s">
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="18"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="35"/>
     </row>
     <row r="9" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33" t="s">
+      <c r="K9" s="28"/>
+      <c r="L9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35" t="s">
+      <c r="R9" s="30"/>
+      <c r="S9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="14" t="s">
+      <c r="T9" s="30"/>
+      <c r="U9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="W9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="X9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="10" t="s">
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="10" t="s">
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AC9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="21" t="s">
+      <c r="AD9" s="38" t="s">
         <v>14</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AF9" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="6:32" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F10" s="46"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
@@ -951,9 +951,9 @@
         <v>16</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="6" t="s">
         <v>16</v>
       </c>
@@ -962,9 +962,9 @@
         <v>16</v>
       </c>
       <c r="T10" s="6"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="7" t="s">
         <v>16</v>
       </c>
@@ -973,19 +973,19 @@
         <v>16</v>
       </c>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="22"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="39"/>
       <c r="AE10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="22"/>
+      <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="20">
         <v>44222</v>
       </c>
       <c r="H11" s="2">
@@ -1030,14 +1030,14 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="41">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="13">
         <f>H11+O11+V11</f>
         <v>6</v>
       </c>
@@ -1055,19 +1055,19 @@
       </c>
     </row>
     <row r="12" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="20">
         <v>44223</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1075,23 +1075,23 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="41"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="13"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="20">
         <v>44224</v>
       </c>
       <c r="H13" s="2"/>
@@ -1108,23 +1108,23 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="41"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="13"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="20">
         <v>44225</v>
       </c>
       <c r="H14" s="2"/>
@@ -1141,23 +1141,23 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="41"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="13"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="20">
         <v>44226</v>
       </c>
       <c r="H15" s="2"/>
@@ -1174,23 +1174,23 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="41"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="13"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="20">
         <v>44227</v>
       </c>
       <c r="H16" s="2"/>
@@ -1207,23 +1207,23 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="41"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="13"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="20">
         <v>44228</v>
       </c>
       <c r="H17" s="2"/>
@@ -1240,23 +1240,23 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="41"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="13"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="20">
         <v>44229</v>
       </c>
       <c r="H18" s="2"/>
@@ -1273,23 +1273,23 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="41"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="13"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="20">
         <v>44230</v>
       </c>
       <c r="H19" s="2"/>
@@ -1306,23 +1306,23 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="41"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="13"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="20">
         <v>44231</v>
       </c>
       <c r="H20" s="2"/>
@@ -1339,23 +1339,23 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="41"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="13"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="20">
         <v>44232</v>
       </c>
       <c r="H21" s="2"/>
@@ -1372,23 +1372,23 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="41"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="13"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="20">
         <v>44233</v>
       </c>
       <c r="H22" s="2"/>
@@ -1405,23 +1405,23 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="41"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="13"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="20">
         <v>44234</v>
       </c>
       <c r="H23" s="2"/>
@@ -1438,23 +1438,23 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="41"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="13"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="20">
         <v>44235</v>
       </c>
       <c r="H24" s="2"/>
@@ -1471,23 +1471,23 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="41"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="13"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="20">
         <v>44236</v>
       </c>
       <c r="H25" s="2"/>
@@ -1504,23 +1504,23 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="41"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="13"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="20">
         <v>44237</v>
       </c>
       <c r="H26" s="2"/>
@@ -1537,23 +1537,23 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="41"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="13"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="20">
         <v>44238</v>
       </c>
       <c r="H27" s="2"/>
@@ -1570,23 +1570,23 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="41"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="13"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="20">
         <v>44239</v>
       </c>
       <c r="H28" s="2"/>
@@ -1603,23 +1603,23 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="41"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="13"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="20">
         <v>44240</v>
       </c>
       <c r="H29" s="2"/>
@@ -1636,23 +1636,23 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="41"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="13"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="20">
         <v>44241</v>
       </c>
       <c r="H30" s="2"/>
@@ -1669,23 +1669,23 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="41"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="13"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
     <row r="31" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="20">
         <v>44242</v>
       </c>
       <c r="H31" s="2"/>
@@ -1702,23 +1702,23 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="41"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="13"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
     <row r="32" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="20">
         <v>44243</v>
       </c>
       <c r="H32" s="2"/>
@@ -1735,23 +1735,23 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="41"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="13"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
     <row r="33" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="20">
         <v>44244</v>
       </c>
       <c r="H33" s="2"/>
@@ -1768,23 +1768,23 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="41"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="13"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
     <row r="34" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="20">
         <v>44245</v>
       </c>
       <c r="H34" s="2"/>
@@ -1801,23 +1801,23 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="41"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="13"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
     <row r="35" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="20">
         <v>44246</v>
       </c>
       <c r="H35" s="2"/>
@@ -1834,23 +1834,23 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="41"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="13"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
     <row r="36" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="20">
         <v>44247</v>
       </c>
       <c r="H36" s="2"/>
@@ -1867,23 +1867,23 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="41"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="13"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
     <row r="37" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="20">
         <v>44248</v>
       </c>
       <c r="H37" s="2"/>
@@ -1900,23 +1900,23 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="41"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="13"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
     <row r="38" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="20">
         <v>44249</v>
       </c>
       <c r="H38" s="2"/>
@@ -1933,23 +1933,23 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="41"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="13"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
     <row r="39" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="20">
         <v>44250</v>
       </c>
       <c r="H39" s="2"/>
@@ -1966,29 +1966,20 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="41"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="13"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="U9:U10"/>
@@ -2002,6 +1993,15 @@
     <mergeCell ref="V8:AB8"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.wettstein\Documents\git\pu-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070BABE-DF3E-401A-BB80-80F1D9204715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C4F2A-A91C-4511-92FC-986335B6A46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>di</t>
-  </si>
-  <si>
-    <t>contacts</t>
   </si>
   <si>
     <t>morning</t>
@@ -74,43 +72,41 @@
     <t>di.</t>
   </si>
   <si>
-    <t>target count</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>[min]</t>
   </si>
   <si>
-    <t>low stake
-interact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high stake
-interact </t>
-  </si>
-  <si>
-    <t>high stake interact</t>
-  </si>
-  <si>
-    <t>low stake interact</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
-    <t>hs interaction</t>
+    <t>TARG COUNT</t>
+  </si>
+  <si>
+    <t>LOOKS</t>
+  </si>
+  <si>
+    <t>LSI</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t>HSI MISSED</t>
+  </si>
+  <si>
+    <t>shy</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +137,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -187,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -360,11 +381,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,33 +442,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -411,57 +457,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,18 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,7 +499,124 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,6 +634,1762 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AI$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TARG COUNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$G$11:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AI$11:$AI$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-164D-41DF-8E59-DCBE5077B6A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AJ$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOOKS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$G$11:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AJ$11:$AJ$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-164D-41DF-8E59-DCBE5077B6A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AK$9:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>HSI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[min]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$G$11:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AK$11:$AK$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-164D-41DF-8E59-DCBE5077B6A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AL$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOBILE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$G$11:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AL$11:$AL$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-164D-41DF-8E59-DCBE5077B6A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="827771488"/>
+        <c:axId val="827165248"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="827771488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827165248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="827165248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827771488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>386603</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCF9162-1E1D-45CD-BCE6-89918D60B133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -824,168 +2689,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8CDD11-E7A3-45EF-9C26-0044EB714D7A}">
-  <dimension ref="F8:AF39"/>
+  <dimension ref="F8:AL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="4.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="28" width="9.140625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="38" width="7.85546875" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="40" t="s">
+    <row r="8" spans="6:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43" t="s">
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="33" t="s">
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="14"/>
+    </row>
+    <row r="9" spans="6:38" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="31"/>
+      <c r="H9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="35"/>
+      <c r="O9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="36"/>
+      <c r="U9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ9" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL9" s="55" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="6:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="21" t="s">
+    <row r="10" spans="6:38" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="58"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="23" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="25" t="s">
+      <c r="M10" s="60"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="X9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="36" t="s">
+      <c r="T10" s="61"/>
+      <c r="U10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF9" s="38" t="s">
-        <v>1</v>
-      </c>
+      <c r="V10" s="61"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL10" s="57"/>
     </row>
-    <row r="10" spans="6:32" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF10" s="39"/>
-    </row>
-    <row r="11" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
+    <row r="11" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
         <v>44222</v>
       </c>
       <c r="H11" s="2">
@@ -998,100 +2888,140 @@
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="27"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
         <v>4</v>
       </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <v>2</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="6">
+        <f>H11+Q11+Z11</f>
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f>I11+R11+AA11</f>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2">
+        <f>L11+U11+AD11</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <f>N11+W11+AF11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="13">
-        <f>H11+O11+V11</f>
+      <c r="G12" s="11">
+        <v>44223</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="2">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="6">
+        <f t="shared" ref="AI12:AI39" si="0">H12+Q12+Z12</f>
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f t="shared" ref="AJ12:AJ39" si="1">I12+R12+AA12</f>
+        <v>1</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" ref="AK12:AK39" si="2">L12+U12+AD12</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" ref="AL12:AL39" si="3">N12+W12+AF12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AD11" s="2">
-        <f>I11+P11+W11</f>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="2">
-        <f>L11+S11+Z11</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <f>N11+U11+AB11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="20">
-        <v>44223</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="20">
+      <c r="G13" s="11">
         <v>44224</v>
       </c>
       <c r="H13" s="2"/>
@@ -1101,30 +3031,48 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="3"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="20">
+    <row r="14" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11">
         <v>44225</v>
       </c>
       <c r="H14" s="2"/>
@@ -1134,30 +3082,48 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="20">
+    <row r="15" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11">
         <v>44226</v>
       </c>
       <c r="H15" s="2"/>
@@ -1167,30 +3133,48 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="20">
+    <row r="16" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11">
         <v>44227</v>
       </c>
       <c r="H16" s="2"/>
@@ -1200,30 +3184,48 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="27"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="20">
+    <row r="17" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="11">
         <v>44228</v>
       </c>
       <c r="H17" s="2"/>
@@ -1233,30 +3235,48 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="27"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="3"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="20">
+    <row r="18" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="11">
         <v>44229</v>
       </c>
       <c r="H18" s="2"/>
@@ -1266,30 +3286,48 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="20">
+    <row r="19" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
         <v>44230</v>
       </c>
       <c r="H19" s="2"/>
@@ -1299,30 +3337,48 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="3"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="20">
+    <row r="20" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11">
         <v>44231</v>
       </c>
       <c r="H20" s="2"/>
@@ -1332,30 +3388,48 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="20">
+    <row r="21" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="11">
         <v>44232</v>
       </c>
       <c r="H21" s="2"/>
@@ -1365,30 +3439,48 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="3"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="T21" s="3"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="20">
+    <row r="22" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="11">
         <v>44233</v>
       </c>
       <c r="H22" s="2"/>
@@ -1398,30 +3490,48 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="T22" s="3"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="20">
+    <row r="23" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11">
         <v>44234</v>
       </c>
       <c r="H23" s="2"/>
@@ -1431,30 +3541,48 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="27"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="T23" s="3"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="20">
+    <row r="24" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11">
         <v>44235</v>
       </c>
       <c r="H24" s="2"/>
@@ -1464,30 +3592,48 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="27"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="T24" s="3"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="20">
+    <row r="25" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11">
         <v>44236</v>
       </c>
       <c r="H25" s="2"/>
@@ -1497,30 +3643,48 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="3"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="T25" s="3"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="20">
+    <row r="26" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="11">
         <v>44237</v>
       </c>
       <c r="H26" s="2"/>
@@ -1530,30 +3694,48 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="27"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="T26" s="3"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="20">
+    <row r="27" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="11">
         <v>44238</v>
       </c>
       <c r="H27" s="2"/>
@@ -1563,30 +3745,48 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="T27" s="3"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="20">
+    <row r="28" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="11">
         <v>44239</v>
       </c>
       <c r="H28" s="2"/>
@@ -1596,30 +3796,48 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="T28" s="3"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="20">
+    <row r="29" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11">
         <v>44240</v>
       </c>
       <c r="H29" s="2"/>
@@ -1629,30 +3847,48 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="T29" s="3"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="20">
+    <row r="30" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11">
         <v>44241</v>
       </c>
       <c r="H30" s="2"/>
@@ -1662,30 +3898,48 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="T30" s="3"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="20">
+    <row r="31" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="11">
         <v>44242</v>
       </c>
       <c r="H31" s="2"/>
@@ -1695,30 +3949,48 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="T31" s="3"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="20">
+    <row r="32" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="11">
         <v>44243</v>
       </c>
       <c r="H32" s="2"/>
@@ -1728,30 +4000,48 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="27"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="T32" s="3"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F33" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="20">
+    <row r="33" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="11">
         <v>44244</v>
       </c>
       <c r="H33" s="2"/>
@@ -1761,30 +4051,48 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" s="27"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="T33" s="3"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F34" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="20">
+    <row r="34" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="11">
         <v>44245</v>
       </c>
       <c r="H34" s="2"/>
@@ -1794,30 +4102,48 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="27"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="T34" s="3"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F35" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="20">
+    <row r="35" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="11">
         <v>44246</v>
       </c>
       <c r="H35" s="2"/>
@@ -1827,30 +4153,48 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="T35" s="3"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="20">
+    <row r="36" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="11">
         <v>44247</v>
       </c>
       <c r="H36" s="2"/>
@@ -1860,30 +4204,48 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="27"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="T36" s="3"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F37" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="20">
+    <row r="37" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="11">
         <v>44248</v>
       </c>
       <c r="H37" s="2"/>
@@ -1893,30 +4255,48 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" s="27"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="T37" s="3"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="20">
+    <row r="38" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="11">
         <v>44249</v>
       </c>
       <c r="H38" s="2"/>
@@ -1926,30 +4306,48 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" s="27"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="3"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
+      <c r="T38" s="3"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="20">
+    <row r="39" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="11">
         <v>44250</v>
       </c>
       <c r="H39" s="2"/>
@@ -1959,52 +4357,88 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" s="27"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="3"/>
+      <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
+      <c r="T39" s="3"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="24"/>
+      <c r="AI39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AB9:AB10"/>
+  <mergeCells count="25">
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="Q8:Y8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="AG9:AH10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="N9:N10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q9:Q10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF01069-F18B-40E0-A3E4-933A59098966}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.wettstein\Documents\git\pu-pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\pu-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C4F2A-A91C-4511-92FC-986335B6A46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F748CA47-2CC1-4037-AAC1-C365AAA3A593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -466,6 +466,135 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,153 +604,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,7 +639,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -798,7 +798,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1035,7 +1035,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2692,10 +2692,10 @@
   <dimension ref="F8:AL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="4.85546875" style="9" customWidth="1"/>
@@ -2705,171 +2705,171 @@
   </cols>
   <sheetData>
     <row r="8" spans="6:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="21" t="s">
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="12" t="s">
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="14"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="57"/>
     </row>
-    <row r="9" spans="6:38" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="31"/>
-      <c r="H9" s="40" t="s">
+    <row r="9" spans="6:38" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="19"/>
+      <c r="H9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33" t="s">
+      <c r="K9" s="46"/>
+      <c r="L9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="40" t="s">
+      <c r="M9" s="46"/>
+      <c r="N9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="42" t="s">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="42" t="s">
+      <c r="R9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35" t="s">
+      <c r="T9" s="38"/>
+      <c r="U9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="42" t="s">
+      <c r="V9" s="38"/>
+      <c r="W9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="X9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="44" t="s">
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AA9" s="44" t="s">
+      <c r="AA9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="37" t="s">
+      <c r="AB9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="37" t="s">
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="44" t="s">
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="37" t="s">
+      <c r="AG9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="54" t="s">
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" s="55" t="s">
+      <c r="AJ9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AK9" s="39" t="s">
+      <c r="AK9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AL9" s="55" t="s">
+      <c r="AL9" s="60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="6:38" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="58"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="60" t="s">
+    <row r="10" spans="6:38" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="23"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="61" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61" t="s">
+      <c r="T10" s="26"/>
+      <c r="U10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="62" t="s">
+      <c r="V10" s="26"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62" t="s">
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="53" t="s">
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AL10" s="57"/>
+      <c r="AL10" s="61"/>
     </row>
     <row r="11" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F11" s="10" t="s">
@@ -2899,7 +2899,7 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="27"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2">
         <v>4</v>
@@ -2910,7 +2910,7 @@
       <c r="S11" s="2">
         <v>2</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="T11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="U11" s="2">
@@ -2922,7 +2922,7 @@
       <c r="W11" s="2">
         <v>0</v>
       </c>
-      <c r="X11" s="27"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -2931,8 +2931,8 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="23"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="12"/>
       <c r="AI11" s="6">
         <f>H11+Q11+Z11</f>
         <v>6</v>
@@ -2964,7 +2964,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="28"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="2">
         <v>4</v>
@@ -2985,28 +2985,38 @@
       <c r="W12" s="2">
         <v>0</v>
       </c>
-      <c r="X12" s="27">
+      <c r="X12" s="15">
         <v>1</v>
       </c>
-      <c r="Y12" s="26" t="s">
+      <c r="Y12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="Z12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
       <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="24"/>
+      <c r="AF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="13"/>
       <c r="AI12" s="6">
         <f t="shared" ref="AI12:AI39" si="0">H12+Q12+Z12</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" ref="AJ12:AJ39" si="1">I12+R12+AA12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" ref="AK12:AK39" si="2">L12+U12+AD12</f>
@@ -3031,7 +3041,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="27"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -3040,7 +3050,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="27"/>
+      <c r="X13" s="15"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -3049,8 +3059,8 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="24"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="13"/>
       <c r="AI13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3082,7 +3092,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="27"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -3091,7 +3101,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="27"/>
+      <c r="X14" s="15"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -3100,8 +3110,8 @@
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="24"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="13"/>
       <c r="AI14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3133,7 +3143,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="27"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -3142,7 +3152,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="27"/>
+      <c r="X15" s="15"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
@@ -3151,8 +3161,8 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="24"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="13"/>
       <c r="AI15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3184,7 +3194,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="27"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -3193,7 +3203,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="27"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -3202,8 +3212,8 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="24"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="13"/>
       <c r="AI16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3235,7 +3245,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="27"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -3244,7 +3254,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="27"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -3253,8 +3263,8 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="24"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="13"/>
       <c r="AI17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3286,7 +3296,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="27"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -3295,7 +3305,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="27"/>
+      <c r="X18" s="15"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -3304,8 +3314,8 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="24"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="13"/>
       <c r="AI18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3337,7 +3347,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="27"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -3346,7 +3356,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="27"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -3355,8 +3365,8 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="24"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="13"/>
       <c r="AI19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3388,7 +3398,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="27"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -3397,7 +3407,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="27"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -3406,8 +3416,8 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="24"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="13"/>
       <c r="AI20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3439,7 +3449,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="27"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -3448,7 +3458,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="27"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -3457,8 +3467,8 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="24"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="13"/>
       <c r="AI21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3490,7 +3500,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="27"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -3499,7 +3509,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="27"/>
+      <c r="X22" s="15"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -3508,8 +3518,8 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="24"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="13"/>
       <c r="AI22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3541,7 +3551,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="27"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -3550,7 +3560,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="27"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -3559,8 +3569,8 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="24"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="13"/>
       <c r="AI23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3592,7 +3602,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="27"/>
+      <c r="O24" s="15"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -3601,7 +3611,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="27"/>
+      <c r="X24" s="15"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -3610,8 +3620,8 @@
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="24"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="13"/>
       <c r="AI24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3643,7 +3653,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="27"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -3652,7 +3662,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="27"/>
+      <c r="X25" s="15"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -3661,8 +3671,8 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="24"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="13"/>
       <c r="AI25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3694,7 +3704,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="27"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -3703,7 +3713,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="27"/>
+      <c r="X26" s="15"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -3712,8 +3722,8 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="24"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="13"/>
       <c r="AI26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3745,7 +3755,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="27"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -3754,7 +3764,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="27"/>
+      <c r="X27" s="15"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
@@ -3763,8 +3773,8 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="24"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="13"/>
       <c r="AI27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3796,7 +3806,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="27"/>
+      <c r="O28" s="15"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -3805,7 +3815,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="27"/>
+      <c r="X28" s="15"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -3814,8 +3824,8 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="24"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="13"/>
       <c r="AI28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3847,7 +3857,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="27"/>
+      <c r="O29" s="15"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -3856,7 +3866,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="27"/>
+      <c r="X29" s="15"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
@@ -3865,8 +3875,8 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="24"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="13"/>
       <c r="AI29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3898,7 +3908,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="27"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -3907,7 +3917,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="27"/>
+      <c r="X30" s="15"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -3916,8 +3926,8 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="24"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="13"/>
       <c r="AI30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3949,7 +3959,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="27"/>
+      <c r="O31" s="15"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3958,7 +3968,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="27"/>
+      <c r="X31" s="15"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -3967,8 +3977,8 @@
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="24"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="13"/>
       <c r="AI31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4000,7 +4010,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="27"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -4009,7 +4019,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="27"/>
+      <c r="X32" s="15"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -4018,8 +4028,8 @@
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="24"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="13"/>
       <c r="AI32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4051,7 +4061,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="27"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -4060,7 +4070,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="27"/>
+      <c r="X33" s="15"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
@@ -4069,8 +4079,8 @@
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="24"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="13"/>
       <c r="AI33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4102,7 +4112,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="27"/>
+      <c r="O34" s="15"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -4111,7 +4121,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="27"/>
+      <c r="X34" s="15"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -4120,8 +4130,8 @@
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="24"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="13"/>
       <c r="AI34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4153,7 +4163,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="27"/>
+      <c r="O35" s="15"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4162,7 +4172,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="27"/>
+      <c r="X35" s="15"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -4171,8 +4181,8 @@
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="24"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="13"/>
       <c r="AI35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4204,7 +4214,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="27"/>
+      <c r="O36" s="15"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -4213,7 +4223,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="27"/>
+      <c r="X36" s="15"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
@@ -4222,8 +4232,8 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="24"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="13"/>
       <c r="AI36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4255,7 +4265,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="27"/>
+      <c r="O37" s="15"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4264,7 +4274,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="27"/>
+      <c r="X37" s="15"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -4273,8 +4283,8 @@
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="24"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="13"/>
       <c r="AI37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4306,7 +4316,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="27"/>
+      <c r="O38" s="15"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -4315,7 +4325,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="27"/>
+      <c r="X38" s="15"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -4324,8 +4334,8 @@
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="24"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="13"/>
       <c r="AI38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4357,7 +4367,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="27"/>
+      <c r="O39" s="15"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4366,7 +4376,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="27"/>
+      <c r="X39" s="15"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -4375,8 +4385,8 @@
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="24"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="13"/>
       <c r="AI39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4396,6 +4406,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="H8:P8"/>
     <mergeCell ref="Q8:Y8"/>
     <mergeCell ref="Z8:AH8"/>
@@ -4411,16 +4430,7 @@
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="Q9:Q10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4437,7 +4447,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\pu-pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.wettstein\Documents\git\pu-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F748CA47-2CC1-4037-AAC1-C365AAA3A593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B4B77E-91BB-4582-9C3E-6C2A89A93649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
-  <si>
-    <t>di</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>morning</t>
   </si>
@@ -49,27 +46,6 @@
   </si>
   <si>
     <t>2x30s</t>
-  </si>
-  <si>
-    <t>mi.</t>
-  </si>
-  <si>
-    <t>do.</t>
-  </si>
-  <si>
-    <t>fr.</t>
-  </si>
-  <si>
-    <t>sa.</t>
-  </si>
-  <si>
-    <t>so.</t>
-  </si>
-  <si>
-    <t>mo.</t>
-  </si>
-  <si>
-    <t>di.</t>
   </si>
   <si>
     <t>-</t>
@@ -101,11 +77,20 @@
   <si>
     <t>MOBILE</t>
   </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -457,15 +442,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -488,9 +464,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,9 +473,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,6 +484,51 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,9 +568,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,51 +589,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,7 +621,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -661,7 +643,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AI$9</c:f>
+              <c:f>Tabelle1!$AH$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -683,114 +665,103 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Tabelle1!$G$11:$G$39</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+            <c:strRef>
+              <c:f>Tabelle1!$F$11:$F$39</c:f>
+              <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>44222</c:v>
+                  <c:v>26.01.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44223</c:v>
+                  <c:v>27.01.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44224</c:v>
+                  <c:v>28.01.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44225</c:v>
+                  <c:v>29.01.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44226</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44227</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44228</c:v>
+                  <c:v>01.02.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44229</c:v>
+                  <c:v>02.02.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44230</c:v>
+                  <c:v>03.02.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44231</c:v>
+                  <c:v>04.02.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44232</c:v>
+                  <c:v>05.02.21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44233</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44234</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44235</c:v>
+                  <c:v>08.02.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44236</c:v>
+                  <c:v>09.02.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44237</c:v>
+                  <c:v>10.02.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44238</c:v>
+                  <c:v>11.02.21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>12.02.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44240</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44241</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44242</c:v>
+                  <c:v>15.02.21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44243</c:v>
+                  <c:v>16.02.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44244</c:v>
+                  <c:v>17.02.21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44245</c:v>
+                  <c:v>18.02.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44246</c:v>
+                  <c:v>19.02.21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44247</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44248</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44249</c:v>
+                  <c:v>22.02.21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>23.02.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AI$11:$AI$39</c:f>
+              <c:f>Tabelle1!$AH$11:$AH$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -801,7 +772,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -896,7 +867,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AJ$9</c:f>
+              <c:f>Tabelle1!$AI$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -920,114 +891,103 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Tabelle1!$G$11:$G$39</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+            <c:strRef>
+              <c:f>Tabelle1!$F$11:$F$39</c:f>
+              <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>44222</c:v>
+                  <c:v>26.01.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44223</c:v>
+                  <c:v>27.01.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44224</c:v>
+                  <c:v>28.01.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44225</c:v>
+                  <c:v>29.01.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44226</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44227</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44228</c:v>
+                  <c:v>01.02.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44229</c:v>
+                  <c:v>02.02.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44230</c:v>
+                  <c:v>03.02.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44231</c:v>
+                  <c:v>04.02.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44232</c:v>
+                  <c:v>05.02.21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44233</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44234</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44235</c:v>
+                  <c:v>08.02.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44236</c:v>
+                  <c:v>09.02.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44237</c:v>
+                  <c:v>10.02.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44238</c:v>
+                  <c:v>11.02.21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>12.02.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44240</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44241</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44242</c:v>
+                  <c:v>15.02.21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44243</c:v>
+                  <c:v>16.02.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44244</c:v>
+                  <c:v>17.02.21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44245</c:v>
+                  <c:v>18.02.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44246</c:v>
+                  <c:v>19.02.21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44247</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44248</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44249</c:v>
+                  <c:v>22.02.21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>23.02.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AJ$11:$AJ$39</c:f>
+              <c:f>Tabelle1!$AI$11:$AI$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -1133,7 +1093,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AK$9:$AK$10</c:f>
+              <c:f>Tabelle1!$AJ$9:$AJ$10</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1158,114 +1118,103 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Tabelle1!$G$11:$G$39</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+            <c:strRef>
+              <c:f>Tabelle1!$F$11:$F$39</c:f>
+              <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>44222</c:v>
+                  <c:v>26.01.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44223</c:v>
+                  <c:v>27.01.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44224</c:v>
+                  <c:v>28.01.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44225</c:v>
+                  <c:v>29.01.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44226</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44227</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44228</c:v>
+                  <c:v>01.02.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44229</c:v>
+                  <c:v>02.02.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44230</c:v>
+                  <c:v>03.02.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44231</c:v>
+                  <c:v>04.02.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44232</c:v>
+                  <c:v>05.02.21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44233</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44234</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44235</c:v>
+                  <c:v>08.02.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44236</c:v>
+                  <c:v>09.02.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44237</c:v>
+                  <c:v>10.02.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44238</c:v>
+                  <c:v>11.02.21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>12.02.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44240</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44241</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44242</c:v>
+                  <c:v>15.02.21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44243</c:v>
+                  <c:v>16.02.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44244</c:v>
+                  <c:v>17.02.21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44245</c:v>
+                  <c:v>18.02.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44246</c:v>
+                  <c:v>19.02.21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44247</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44248</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44249</c:v>
+                  <c:v>22.02.21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>23.02.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AK$11:$AK$39</c:f>
+              <c:f>Tabelle1!$AJ$11:$AJ$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -1371,7 +1320,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$AL$9</c:f>
+              <c:f>Tabelle1!$AK$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1393,114 +1342,103 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle1!$F$11:$G$39</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Tabelle1!$G$11:$G$39</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Tabelle1!$G$11:$G$39</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+            <c:strRef>
+              <c:f>Tabelle1!$F$11:$F$39</c:f>
+              <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>44222</c:v>
+                  <c:v>26.01.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44223</c:v>
+                  <c:v>27.01.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44224</c:v>
+                  <c:v>28.01.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44225</c:v>
+                  <c:v>29.01.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44226</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44227</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44228</c:v>
+                  <c:v>01.02.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44229</c:v>
+                  <c:v>02.02.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44230</c:v>
+                  <c:v>03.02.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44231</c:v>
+                  <c:v>04.02.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44232</c:v>
+                  <c:v>05.02.21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44233</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44234</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44235</c:v>
+                  <c:v>08.02.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44236</c:v>
+                  <c:v>09.02.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44237</c:v>
+                  <c:v>10.02.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44238</c:v>
+                  <c:v>11.02.21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>12.02.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44240</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44241</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44242</c:v>
+                  <c:v>15.02.21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44243</c:v>
+                  <c:v>16.02.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44244</c:v>
+                  <c:v>17.02.21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44245</c:v>
+                  <c:v>18.02.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44246</c:v>
+                  <c:v>19.02.21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44247</c:v>
+                  <c:v>sa</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44248</c:v>
+                  <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44249</c:v>
+                  <c:v>22.02.21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>23.02.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$AL$11:$AL$39</c:f>
+              <c:f>Tabelle1!$AK$11:$AK$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -1613,14 +1551,14 @@
         <c:axId val="827771488"/>
         <c:axId val="827165248"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="827771488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1660,9 +1598,10 @@
         <c:crossAx val="827165248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="827165248"/>
         <c:scaling>
@@ -2355,13 +2294,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>386603</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>129988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>358589</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
@@ -2393,7 +2332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2689,1748 +2628,1643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8CDD11-E7A3-45EF-9C26-0044EB714D7A}">
-  <dimension ref="F8:AL39"/>
+  <dimension ref="F8:AK39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:X39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="4.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="38" width="7.85546875" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="58" customWidth="1"/>
+    <col min="7" max="37" width="7.85546875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="28" t="s">
+    <row r="8" spans="6:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="29"/>
+    </row>
+    <row r="9" spans="6:37" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="59"/>
+      <c r="G9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="55"/>
+      <c r="M9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="48"/>
+      <c r="T9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="48"/>
+      <c r="V9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK9" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="6:37" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="33"/>
+    </row>
+    <row r="11" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F11" s="60">
+        <v>44222</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="57"/>
-    </row>
-    <row r="9" spans="6:38" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="19"/>
-      <c r="H9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="38"/>
-      <c r="U9" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="38"/>
-      <c r="W9" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB9" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ9" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL9" s="60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="6:38" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="23"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="26"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL10" s="61"/>
-    </row>
-    <row r="11" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>44222</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>2</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="6">
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="6">
+        <f>G11+P11+Y11</f>
+        <v>6</v>
+      </c>
+      <c r="AI11" s="2">
         <f>H11+Q11+Z11</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="2">
-        <f>I11+R11+AA11</f>
-        <v>1</v>
+        <f>K11+T11+AC11</f>
+        <v>0</v>
       </c>
       <c r="AK11" s="2">
-        <f>L11+U11+AD11</f>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2">
-        <f>N11+W11+AF11</f>
+        <f>M11+V11+AE11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11">
+    <row r="12" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F12" s="60">
         <v>44223</v>
       </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="4"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2">
+        <v>4</v>
+      </c>
       <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="2">
+      <c r="V12" s="2"/>
+      <c r="W12" s="12">
         <v>1</v>
       </c>
-      <c r="S12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2" t="s">
+      <c r="X12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="15">
+      <c r="Y12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="7">
         <v>1</v>
       </c>
-      <c r="Y12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="7">
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="6">
+        <f t="shared" ref="AH12:AH39" si="0">G12+P12+Y12</f>
+        <v>6</v>
+      </c>
+      <c r="AI12" s="2">
+        <f t="shared" ref="AI12:AI39" si="1">H12+Q12+Z12</f>
         <v>2</v>
       </c>
-      <c r="AA12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="6">
-        <f t="shared" ref="AI12:AI39" si="0">H12+Q12+Z12</f>
-        <v>6</v>
-      </c>
       <c r="AJ12" s="2">
-        <f t="shared" ref="AJ12:AJ39" si="1">I12+R12+AA12</f>
+        <f t="shared" ref="AJ12:AJ39" si="2">K12+T12+AC12</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" ref="AK12:AK39" si="3">M12+V12+AE12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F13" s="60">
+        <v>44224</v>
+      </c>
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="AK12" s="2">
-        <f t="shared" ref="AK12:AK39" si="2">L12+U12+AD12</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <f t="shared" ref="AL12:AL39" si="3">N12+W12+AF12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11">
-        <v>44224</v>
-      </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="15"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="2"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="6">
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="6">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="11">
+    <row r="14" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F14" s="60">
         <v>44225</v>
       </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="15"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="2"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="6">
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="11">
-        <v>44226</v>
-      </c>
+    <row r="15" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F15" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="15"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="2"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="6">
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="11">
-        <v>44227</v>
-      </c>
+    <row r="16" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F16" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="15"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="2"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="6">
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="11">
+    <row r="17" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F17" s="60">
         <v>44228</v>
       </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="15"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="2"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="6">
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="11">
+    <row r="18" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F18" s="60">
         <v>44229</v>
       </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="15"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="2"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="6">
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="11">
+    <row r="19" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F19" s="60">
         <v>44230</v>
       </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="15"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="2"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="6">
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="11">
+    <row r="20" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F20" s="60">
         <v>44231</v>
       </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="15"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="2"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="6">
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="11">
+    <row r="21" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F21" s="60">
         <v>44232</v>
       </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="15"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="2"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="6">
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="11">
-        <v>44233</v>
-      </c>
+    <row r="22" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F22" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="15"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="2"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="6">
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="11">
-        <v>44234</v>
-      </c>
+    <row r="23" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F23" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="15"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="2"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="6">
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11">
+    <row r="24" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F24" s="60">
         <v>44235</v>
       </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="15"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="2"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="6">
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="11">
+    <row r="25" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F25" s="60">
         <v>44236</v>
       </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="15"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="2"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="6">
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="11">
+    <row r="26" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F26" s="60">
         <v>44237</v>
       </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="15"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="2"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="6">
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="11">
+    <row r="27" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F27" s="60">
         <v>44238</v>
       </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="15"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="2"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="6">
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="11">
+    <row r="28" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F28" s="60">
         <v>44239</v>
       </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="15"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="2"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="6">
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="11">
-        <v>44240</v>
-      </c>
+    <row r="29" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F29" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="15"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="2"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="6">
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="11">
-        <v>44241</v>
-      </c>
+    <row r="30" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F30" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="15"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="2"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="6">
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="11">
+    <row r="31" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F31" s="60">
         <v>44242</v>
       </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="15"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="2"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="6">
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="11">
+    <row r="32" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F32" s="60">
         <v>44243</v>
       </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="15"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="2"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="6">
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="11">
+    <row r="33" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F33" s="60">
         <v>44244</v>
       </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="15"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="2"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="6">
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL33" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="11">
+    <row r="34" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F34" s="60">
         <v>44245</v>
       </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="15"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="2"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="6">
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL34" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="11">
+    <row r="35" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F35" s="60">
         <v>44246</v>
       </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="15"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="2"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="6">
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="11">
-        <v>44247</v>
-      </c>
+    <row r="36" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F36" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="15"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="2"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="6">
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="11">
-        <v>44248</v>
-      </c>
+    <row r="37" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F37" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="15"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="2"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="6">
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="11">
+    <row r="38" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F38" s="60">
         <v>44249</v>
       </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="15"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="2"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="6">
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK38" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F39" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="11">
+    <row r="39" spans="6:37" x14ac:dyDescent="0.25">
+      <c r="F39" s="60">
         <v>44250</v>
       </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="15"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="2"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="6">
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AJ39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="Y8:AG8"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="AF9:AG10"/>
+    <mergeCell ref="N9:O10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="Q8:Y8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="X9:Y10"/>
-    <mergeCell ref="AG9:AH10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4447,7 +4281,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.wettstein\Documents\git\pu-pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\pu-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B4B77E-91BB-4582-9C3E-6C2A89A93649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05C045-CAF2-4BD8-927B-AC3882AA3AC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{75ECAB12-BE96-457F-82B4-57E31D5D604E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -484,6 +484,24 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -496,6 +514,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,12 +547,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,12 +580,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,33 +595,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,7 +621,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -670,16 +670,16 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>26.01.21</c:v>
+                  <c:v>26/01/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.01.21</c:v>
+                  <c:v>27/01/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.01.21</c:v>
+                  <c:v>28/01/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.01.21</c:v>
+                  <c:v>29/01/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>sa</c:v>
@@ -688,19 +688,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01.02.21</c:v>
+                  <c:v>01/02/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>02.02.21</c:v>
+                  <c:v>02/02/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>03.02.21</c:v>
+                  <c:v>03/02/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>04.02.21</c:v>
+                  <c:v>04/02/21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>05.02.21</c:v>
+                  <c:v>05/02/21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>sa</c:v>
@@ -709,19 +709,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>08.02.21</c:v>
+                  <c:v>08/02/21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09.02.21</c:v>
+                  <c:v>09/02/21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.02.21</c:v>
+                  <c:v>10/02/21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.02.21</c:v>
+                  <c:v>11/02/21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.02.21</c:v>
+                  <c:v>12/02/21</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>sa</c:v>
@@ -730,19 +730,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.02.21</c:v>
+                  <c:v>15/02/21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.02.21</c:v>
+                  <c:v>16/02/21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.02.21</c:v>
+                  <c:v>17/02/21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.02.21</c:v>
+                  <c:v>18/02/21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.02.21</c:v>
+                  <c:v>19/02/21</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>sa</c:v>
@@ -751,10 +751,10 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.02.21</c:v>
+                  <c:v>22/02/21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.02.21</c:v>
+                  <c:v>23/02/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -896,16 +896,16 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>26.01.21</c:v>
+                  <c:v>26/01/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.01.21</c:v>
+                  <c:v>27/01/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.01.21</c:v>
+                  <c:v>28/01/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.01.21</c:v>
+                  <c:v>29/01/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>sa</c:v>
@@ -914,19 +914,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01.02.21</c:v>
+                  <c:v>01/02/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>02.02.21</c:v>
+                  <c:v>02/02/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>03.02.21</c:v>
+                  <c:v>03/02/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>04.02.21</c:v>
+                  <c:v>04/02/21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>05.02.21</c:v>
+                  <c:v>05/02/21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>sa</c:v>
@@ -935,19 +935,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>08.02.21</c:v>
+                  <c:v>08/02/21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09.02.21</c:v>
+                  <c:v>09/02/21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.02.21</c:v>
+                  <c:v>10/02/21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.02.21</c:v>
+                  <c:v>11/02/21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.02.21</c:v>
+                  <c:v>12/02/21</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>sa</c:v>
@@ -956,19 +956,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.02.21</c:v>
+                  <c:v>15/02/21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.02.21</c:v>
+                  <c:v>16/02/21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.02.21</c:v>
+                  <c:v>17/02/21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.02.21</c:v>
+                  <c:v>18/02/21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.02.21</c:v>
+                  <c:v>19/02/21</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>sa</c:v>
@@ -977,10 +977,10 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.02.21</c:v>
+                  <c:v>22/02/21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.02.21</c:v>
+                  <c:v>23/02/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1123,16 +1123,16 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>26.01.21</c:v>
+                  <c:v>26/01/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.01.21</c:v>
+                  <c:v>27/01/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.01.21</c:v>
+                  <c:v>28/01/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.01.21</c:v>
+                  <c:v>29/01/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>sa</c:v>
@@ -1141,19 +1141,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01.02.21</c:v>
+                  <c:v>01/02/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>02.02.21</c:v>
+                  <c:v>02/02/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>03.02.21</c:v>
+                  <c:v>03/02/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>04.02.21</c:v>
+                  <c:v>04/02/21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>05.02.21</c:v>
+                  <c:v>05/02/21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>sa</c:v>
@@ -1162,19 +1162,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>08.02.21</c:v>
+                  <c:v>08/02/21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09.02.21</c:v>
+                  <c:v>09/02/21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.02.21</c:v>
+                  <c:v>10/02/21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.02.21</c:v>
+                  <c:v>11/02/21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.02.21</c:v>
+                  <c:v>12/02/21</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>sa</c:v>
@@ -1183,19 +1183,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.02.21</c:v>
+                  <c:v>15/02/21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.02.21</c:v>
+                  <c:v>16/02/21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.02.21</c:v>
+                  <c:v>17/02/21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.02.21</c:v>
+                  <c:v>18/02/21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.02.21</c:v>
+                  <c:v>19/02/21</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>sa</c:v>
@@ -1204,10 +1204,10 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.02.21</c:v>
+                  <c:v>22/02/21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.02.21</c:v>
+                  <c:v>23/02/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1347,16 +1347,16 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>26.01.21</c:v>
+                  <c:v>26/01/21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.01.21</c:v>
+                  <c:v>27/01/21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.01.21</c:v>
+                  <c:v>28/01/21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.01.21</c:v>
+                  <c:v>29/01/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>sa</c:v>
@@ -1365,19 +1365,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01.02.21</c:v>
+                  <c:v>01/02/21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>02.02.21</c:v>
+                  <c:v>02/02/21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>03.02.21</c:v>
+                  <c:v>03/02/21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>04.02.21</c:v>
+                  <c:v>04/02/21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>05.02.21</c:v>
+                  <c:v>05/02/21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>sa</c:v>
@@ -1386,19 +1386,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>08.02.21</c:v>
+                  <c:v>08/02/21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09.02.21</c:v>
+                  <c:v>09/02/21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.02.21</c:v>
+                  <c:v>10/02/21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.02.21</c:v>
+                  <c:v>11/02/21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.02.21</c:v>
+                  <c:v>12/02/21</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>sa</c:v>
@@ -1407,19 +1407,19 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.02.21</c:v>
+                  <c:v>15/02/21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.02.21</c:v>
+                  <c:v>16/02/21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.02.21</c:v>
+                  <c:v>17/02/21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.02.21</c:v>
+                  <c:v>18/02/21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.02.21</c:v>
+                  <c:v>19/02/21</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>sa</c:v>
@@ -1428,10 +1428,10 @@
                   <c:v>so</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.02.21</c:v>
+                  <c:v>22/02/21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.02.21</c:v>
+                  <c:v>23/02/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2332,7 +2332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2631,139 +2631,139 @@
   <dimension ref="F8:AK39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:X39"/>
+      <selection activeCell="AF43" sqref="AF43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="9.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="23" customWidth="1"/>
     <col min="7" max="37" width="7.85546875" style="1" customWidth="1"/>
     <col min="38" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="6:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41" t="s">
+      <c r="G8" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="44" t="s">
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="27" t="s">
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="29"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="39"/>
     </row>
     <row r="9" spans="6:37" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="59"/>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="54" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="23" t="s">
+      <c r="L9" s="34"/>
+      <c r="M9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="25" t="s">
+      <c r="O9" s="34"/>
+      <c r="P9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="48"/>
-      <c r="T9" s="47" t="s">
+      <c r="S9" s="36"/>
+      <c r="T9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="48"/>
-      <c r="V9" s="25" t="s">
+      <c r="U9" s="36"/>
+      <c r="V9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="34" t="s">
+      <c r="X9" s="36"/>
+      <c r="Y9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="Z9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AA9" s="36" t="s">
+      <c r="AA9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="36" t="s">
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="34" t="s">
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" s="36" t="s">
+      <c r="AF9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="30" t="s">
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AI9" s="32" t="s">
+      <c r="AI9" s="42" t="s">
         <v>8</v>
       </c>
       <c r="AJ9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AK9" s="32" t="s">
+      <c r="AK9" s="42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="6:37" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="20" t="s">
         <v>5</v>
       </c>
@@ -2772,11 +2772,11 @@
         <v>5</v>
       </c>
       <c r="L10" s="20"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="21" t="s">
         <v>5</v>
       </c>
@@ -2785,11 +2785,11 @@
         <v>5</v>
       </c>
       <c r="U10" s="21"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
       <c r="AA10" s="22" t="s">
         <v>5</v>
       </c>
@@ -2798,18 +2798,18 @@
         <v>5</v>
       </c>
       <c r="AD10" s="22"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="33"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="43"/>
       <c r="AJ10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="33"/>
+      <c r="AK10" s="43"/>
     </row>
     <row r="11" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F11" s="60">
+      <c r="F11" s="25">
         <v>44222</v>
       </c>
       <c r="G11" s="2">
@@ -2875,7 +2875,7 @@
       </c>
     </row>
     <row r="12" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F12" s="60">
+      <c r="F12" s="25">
         <v>44223</v>
       </c>
       <c r="G12" s="4"/>
@@ -2939,7 +2939,7 @@
       </c>
     </row>
     <row r="13" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F13" s="60">
+      <c r="F13" s="25">
         <v>44224</v>
       </c>
       <c r="G13" s="2">
@@ -2955,24 +2955,24 @@
       <c r="M13" s="2"/>
       <c r="N13" s="12"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="10"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="9"/>
       <c r="AH13" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2991,7 +2991,7 @@
       </c>
     </row>
     <row r="14" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F14" s="60">
+      <c r="F14" s="25">
         <v>44225</v>
       </c>
       <c r="G14" s="2"/>
@@ -3039,7 +3039,7 @@
       </c>
     </row>
     <row r="15" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2"/>
@@ -3087,7 +3087,7 @@
       </c>
     </row>
     <row r="16" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2"/>
@@ -3135,7 +3135,7 @@
       </c>
     </row>
     <row r="17" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F17" s="60">
+      <c r="F17" s="25">
         <v>44228</v>
       </c>
       <c r="G17" s="2"/>
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="18" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F18" s="60">
+      <c r="F18" s="25">
         <v>44229</v>
       </c>
       <c r="G18" s="2"/>
@@ -3231,7 +3231,7 @@
       </c>
     </row>
     <row r="19" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F19" s="60">
+      <c r="F19" s="25">
         <v>44230</v>
       </c>
       <c r="G19" s="2"/>
@@ -3279,7 +3279,7 @@
       </c>
     </row>
     <row r="20" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F20" s="60">
+      <c r="F20" s="25">
         <v>44231</v>
       </c>
       <c r="G20" s="2"/>
@@ -3327,7 +3327,7 @@
       </c>
     </row>
     <row r="21" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F21" s="60">
+      <c r="F21" s="25">
         <v>44232</v>
       </c>
       <c r="G21" s="2"/>
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="22" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="2"/>
@@ -3423,7 +3423,7 @@
       </c>
     </row>
     <row r="23" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="2"/>
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="24" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="60">
+      <c r="F24" s="25">
         <v>44235</v>
       </c>
       <c r="G24" s="2"/>
@@ -3519,7 +3519,7 @@
       </c>
     </row>
     <row r="25" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F25" s="60">
+      <c r="F25" s="25">
         <v>44236</v>
       </c>
       <c r="G25" s="2"/>
@@ -3567,7 +3567,7 @@
       </c>
     </row>
     <row r="26" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F26" s="60">
+      <c r="F26" s="25">
         <v>44237</v>
       </c>
       <c r="G26" s="2"/>
@@ -3615,7 +3615,7 @@
       </c>
     </row>
     <row r="27" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F27" s="60">
+      <c r="F27" s="25">
         <v>44238</v>
       </c>
       <c r="G27" s="2"/>
@@ -3663,7 +3663,7 @@
       </c>
     </row>
     <row r="28" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F28" s="60">
+      <c r="F28" s="25">
         <v>44239</v>
       </c>
       <c r="G28" s="2"/>
@@ -3711,7 +3711,7 @@
       </c>
     </row>
     <row r="29" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="2"/>
@@ -3759,7 +3759,7 @@
       </c>
     </row>
     <row r="30" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="2"/>
@@ -3807,7 +3807,7 @@
       </c>
     </row>
     <row r="31" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F31" s="60">
+      <c r="F31" s="25">
         <v>44242</v>
       </c>
       <c r="G31" s="2"/>
@@ -3855,7 +3855,7 @@
       </c>
     </row>
     <row r="32" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F32" s="60">
+      <c r="F32" s="25">
         <v>44243</v>
       </c>
       <c r="G32" s="2"/>
@@ -3903,7 +3903,7 @@
       </c>
     </row>
     <row r="33" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F33" s="60">
+      <c r="F33" s="25">
         <v>44244</v>
       </c>
       <c r="G33" s="2"/>
@@ -3951,7 +3951,7 @@
       </c>
     </row>
     <row r="34" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F34" s="60">
+      <c r="F34" s="25">
         <v>44245</v>
       </c>
       <c r="G34" s="2"/>
@@ -3999,7 +3999,7 @@
       </c>
     </row>
     <row r="35" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F35" s="60">
+      <c r="F35" s="25">
         <v>44246</v>
       </c>
       <c r="G35" s="2"/>
@@ -4047,7 +4047,7 @@
       </c>
     </row>
     <row r="36" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="2"/>
@@ -4095,7 +4095,7 @@
       </c>
     </row>
     <row r="37" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="2"/>
@@ -4143,7 +4143,7 @@
       </c>
     </row>
     <row r="38" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F38" s="60">
+      <c r="F38" s="25">
         <v>44249</v>
       </c>
       <c r="G38" s="2"/>
@@ -4191,7 +4191,7 @@
       </c>
     </row>
     <row r="39" spans="6:37" x14ac:dyDescent="0.25">
-      <c r="F39" s="60">
+      <c r="F39" s="25">
         <v>44250</v>
       </c>
       <c r="G39" s="2"/>
@@ -4240,6 +4240,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="Y8:AG8"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="AF9:AG10"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="V9:V10"/>
@@ -4251,20 +4265,6 @@
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="P9:P10"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="Y8:AG8"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="AF9:AG10"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4281,7 +4281,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
